--- a/Deck of Dice Assets/cardsexcel.xlsx
+++ b/Deck of Dice Assets/cardsexcel.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn\Documents\deck-of-many-dice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBBC9A-238A-4440-A237-4C6483629725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B559B17-0F60-4DF3-82FA-6674DBE70573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{0A6804FF-FCE8-4195-9CF2-BEB056FD761A}"/>
   </bookViews>
@@ -513,9 +508,6 @@
     <t>cultist.png</t>
   </si>
   <si>
-    <t>rename.png</t>
-  </si>
-  <si>
     <t>kraken.png</t>
   </si>
   <si>
@@ -709,6 +701,9 @@
   </si>
   <si>
     <t>bottompip0.png</t>
+  </si>
+  <si>
+    <t>skull.png</t>
   </si>
 </sst>
 </file>
@@ -1095,9 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BE2941-83DC-47D4-872C-3402802D771E}">
   <dimension ref="A1:AW241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="123" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN107" sqref="AN107"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,10 +1122,10 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" t="s">
-        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>106</v>
@@ -1139,7 +1134,7 @@
         <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
         <v>98</v>
@@ -1148,7 +1143,7 @@
         <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
         <v>96</v>
@@ -1169,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -1280,16 +1275,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1313,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -1346,7 +1341,7 @@
         <v>119</v>
       </c>
       <c r="AP2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1370,16 +1365,16 @@
         <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1403,13 +1398,13 @@
         <v>2</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U3" t="s">
         <v>11</v>
@@ -1436,7 +1431,7 @@
         <v>120</v>
       </c>
       <c r="AP3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1460,16 +1455,16 @@
         <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1493,13 +1488,13 @@
         <v>3</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U4" t="s">
         <v>11</v>
@@ -1526,7 +1521,7 @@
         <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1550,16 +1545,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1583,13 +1578,13 @@
         <v>4</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U5" t="s">
         <v>11</v>
@@ -1616,7 +1611,7 @@
         <v>121</v>
       </c>
       <c r="AP5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ5">
         <v>4</v>
@@ -1640,16 +1635,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1673,13 +1668,13 @@
         <v>5</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U6" t="s">
         <v>11</v>
@@ -1706,7 +1701,7 @@
         <v>121</v>
       </c>
       <c r="AP6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ6">
         <v>5</v>
@@ -1730,16 +1725,16 @@
         <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1763,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
@@ -1796,7 +1791,7 @@
         <v>121</v>
       </c>
       <c r="AP7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ7">
         <v>6</v>
@@ -1820,16 +1815,16 @@
         <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1853,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U8" t="s">
         <v>11</v>
@@ -1886,7 +1881,7 @@
         <v>122</v>
       </c>
       <c r="AP8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ8">
         <v>7</v>
@@ -1910,16 +1905,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1943,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
@@ -1976,7 +1971,7 @@
         <v>122</v>
       </c>
       <c r="AP9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ9">
         <v>8</v>
@@ -2000,16 +1995,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -2033,13 +2028,13 @@
         <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U10" t="s">
         <v>11</v>
@@ -2066,7 +2061,7 @@
         <v>122</v>
       </c>
       <c r="AP10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ10">
         <v>9</v>
@@ -2090,16 +2085,16 @@
         <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -2156,7 +2151,7 @@
         <v>122</v>
       </c>
       <c r="AP11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ11">
         <v>10</v>
@@ -2182,16 +2177,16 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -2215,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S12" s="4">
         <v>11</v>
@@ -2248,7 +2243,7 @@
         <v>123</v>
       </c>
       <c r="AP12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ12">
         <v>11</v>
@@ -2274,16 +2269,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -2307,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S13" s="4">
         <v>12</v>
@@ -2340,7 +2335,7 @@
         <v>123</v>
       </c>
       <c r="AP13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ13">
         <v>12</v>
@@ -2366,16 +2361,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -2399,10 +2394,10 @@
         <v>5</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T14" s="4">
         <v>13</v>
@@ -2432,7 +2427,7 @@
         <v>123</v>
       </c>
       <c r="AP14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ14">
         <v>13</v>
@@ -2458,16 +2453,16 @@
         <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J15">
         <v>13</v>
@@ -2491,10 +2486,10 @@
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T15" s="4">
         <v>14</v>
@@ -2524,7 +2519,7 @@
         <v>123</v>
       </c>
       <c r="AP15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ15">
         <v>14</v>
@@ -2553,13 +2548,13 @@
         <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J16">
         <v>14</v>
@@ -2583,10 +2578,10 @@
         <v>7</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T16" s="4">
         <v>15</v>
@@ -2595,7 +2590,7 @@
         <v>11</v>
       </c>
       <c r="V16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W16">
         <v>15</v>
@@ -2616,7 +2611,7 @@
         <v>123</v>
       </c>
       <c r="AP16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ16">
         <v>15</v>
@@ -2642,16 +2637,16 @@
         <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17">
         <v>15</v>
@@ -2675,10 +2670,10 @@
         <v>8</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T17" s="4">
         <v>16</v>
@@ -2708,7 +2703,7 @@
         <v>124</v>
       </c>
       <c r="AP17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ17">
         <v>16</v>
@@ -2734,16 +2729,16 @@
         <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -2767,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T18" s="4">
         <v>17</v>
@@ -2800,7 +2795,7 @@
         <v>124</v>
       </c>
       <c r="AP18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ18">
         <v>17</v>
@@ -2826,16 +2821,16 @@
         <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J19">
         <v>17</v>
@@ -2859,10 +2854,10 @@
         <v>2</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T19" s="4">
         <v>18</v>
@@ -2892,7 +2887,7 @@
         <v>124</v>
       </c>
       <c r="AP19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ19">
         <v>18</v>
@@ -2918,16 +2913,16 @@
         <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -2951,10 +2946,10 @@
         <v>3</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T20" s="4">
         <v>19</v>
@@ -2981,7 +2976,7 @@
         <v>124</v>
       </c>
       <c r="AP20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ20">
         <v>19</v>
@@ -3010,16 +3005,16 @@
         <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J21">
         <v>19</v>
@@ -3046,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T21" s="4">
         <v>20</v>
@@ -3073,7 +3068,7 @@
         <v>124</v>
       </c>
       <c r="AP21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ21">
         <v>20</v>
@@ -3102,16 +3097,16 @@
         <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3135,13 +3130,13 @@
         <v>5</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
         <v>11</v>
@@ -3168,7 +3163,7 @@
         <v>124</v>
       </c>
       <c r="AP22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ22">
         <v>21</v>
@@ -3197,16 +3192,16 @@
         <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3230,13 +3225,13 @@
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S23" s="4">
         <v>10</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U23" t="s">
         <v>12</v>
@@ -3263,7 +3258,7 @@
         <v>125</v>
       </c>
       <c r="AP23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ23">
         <v>22</v>
@@ -3292,16 +3287,16 @@
         <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -3325,13 +3320,13 @@
         <v>7</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S24" s="4">
         <v>11</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U24" t="s">
         <v>12</v>
@@ -3358,7 +3353,7 @@
         <v>125</v>
       </c>
       <c r="AP24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ24">
         <v>23</v>
@@ -3387,16 +3382,16 @@
         <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3420,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S25" s="4">
         <v>12</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U25" t="s">
         <v>12</v>
@@ -3453,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="AP25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ25">
         <v>24</v>
@@ -3482,16 +3477,16 @@
         <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -3515,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U26" t="s">
         <v>12</v>
@@ -3548,7 +3543,7 @@
         <v>125</v>
       </c>
       <c r="AP26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ26">
         <v>25</v>
@@ -3577,16 +3572,16 @@
         <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -3610,13 +3605,13 @@
         <v>2</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U27" t="s">
         <v>12</v>
@@ -3643,7 +3638,7 @@
         <v>125</v>
       </c>
       <c r="AP27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ27">
         <v>26</v>
@@ -3672,16 +3667,16 @@
         <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3705,13 +3700,13 @@
         <v>3</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U28" t="s">
         <v>12</v>
@@ -3738,7 +3733,7 @@
         <v>125</v>
       </c>
       <c r="AP28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ28">
         <v>27</v>
@@ -3767,16 +3762,16 @@
         <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J29">
         <v>7</v>
@@ -3800,19 +3795,19 @@
         <v>4</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U29" t="s">
         <v>12</v>
       </c>
       <c r="V29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3833,7 +3828,7 @@
         <v>125</v>
       </c>
       <c r="AP29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AQ29">
         <v>28</v>
@@ -3862,16 +3857,16 @@
         <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J30">
         <v>8</v>
@@ -3895,19 +3890,19 @@
         <v>5</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U30" t="s">
         <v>12</v>
       </c>
       <c r="V30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -3928,7 +3923,7 @@
         <v>126</v>
       </c>
       <c r="AP30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ30">
         <v>29</v>
@@ -3960,13 +3955,13 @@
         <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J31">
         <v>9</v>
@@ -3993,7 +3988,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T31" s="4">
         <v>10</v>
@@ -4023,7 +4018,7 @@
         <v>126</v>
       </c>
       <c r="AP31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ31">
         <v>30</v>
@@ -4052,16 +4047,16 @@
         <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -4085,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T32" s="4">
         <v>11</v>
@@ -4118,7 +4113,7 @@
         <v>126</v>
       </c>
       <c r="AP32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ32">
         <v>31</v>
@@ -4147,16 +4142,16 @@
         <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -4180,10 +4175,10 @@
         <v>8</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T33" s="4">
         <v>12</v>
@@ -4192,7 +4187,7 @@
         <v>12</v>
       </c>
       <c r="V33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -4213,7 +4208,7 @@
         <v>126</v>
       </c>
       <c r="AP33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ33">
         <v>32</v>
@@ -4242,16 +4237,16 @@
         <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J34">
         <v>12</v>
@@ -4275,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T34" s="4">
         <v>13</v>
@@ -4308,7 +4303,7 @@
         <v>126</v>
       </c>
       <c r="AP34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ34">
         <v>33</v>
@@ -4337,16 +4332,16 @@
         <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J35">
         <v>13</v>
@@ -4370,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S35" s="4">
         <v>10</v>
@@ -4382,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="V35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -4403,7 +4398,7 @@
         <v>126</v>
       </c>
       <c r="AP35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ35">
         <v>34</v>
@@ -4432,16 +4427,16 @@
         <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J36">
         <v>14</v>
@@ -4465,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S36" s="4">
         <v>11</v>
@@ -4498,7 +4493,7 @@
         <v>126</v>
       </c>
       <c r="AP36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AQ36">
         <v>35</v>
@@ -4527,16 +4522,16 @@
         <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J37">
         <v>15</v>
@@ -4560,7 +4555,7 @@
         <v>4</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S37" s="4">
         <v>12</v>
@@ -4590,7 +4585,7 @@
         <v>126</v>
       </c>
       <c r="AP37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ37">
         <v>36</v>
@@ -4619,16 +4614,16 @@
         <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J38">
         <v>16</v>
@@ -4652,10 +4647,10 @@
         <v>5</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T38" s="4">
         <v>17</v>
@@ -4682,7 +4677,7 @@
         <v>127</v>
       </c>
       <c r="AP38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ38">
         <v>37</v>
@@ -4711,16 +4706,16 @@
         <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39">
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J39">
         <v>17</v>
@@ -4744,10 +4739,10 @@
         <v>6</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T39" s="4">
         <v>18</v>
@@ -4756,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="V39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -4774,7 +4769,7 @@
         <v>127</v>
       </c>
       <c r="AP39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ39">
         <v>38</v>
@@ -4803,16 +4798,16 @@
         <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40">
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J40">
         <v>18</v>
@@ -4836,10 +4831,10 @@
         <v>7</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T40" s="4">
         <v>19</v>
@@ -4866,7 +4861,7 @@
         <v>127</v>
       </c>
       <c r="AP40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ40">
         <v>39</v>
@@ -4895,16 +4890,16 @@
         <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41">
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J41">
         <v>19</v>
@@ -4931,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T41" s="4">
         <v>20</v>
@@ -4958,7 +4953,7 @@
         <v>127</v>
       </c>
       <c r="AP41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ41">
         <v>40</v>
@@ -4987,16 +4982,16 @@
         <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42">
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5020,19 +5015,19 @@
         <v>1</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U42" t="s">
         <v>13</v>
       </c>
       <c r="V42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -5050,7 +5045,7 @@
         <v>127</v>
       </c>
       <c r="AP42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ42">
         <v>41</v>
@@ -5079,16 +5074,16 @@
         <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5112,13 +5107,13 @@
         <v>2</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U43" t="s">
         <v>13</v>
@@ -5142,7 +5137,7 @@
         <v>127</v>
       </c>
       <c r="AP43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ43">
         <v>42</v>
@@ -5171,16 +5166,16 @@
         <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -5204,19 +5199,19 @@
         <v>3</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U44" t="s">
         <v>13</v>
       </c>
       <c r="V44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -5234,7 +5229,7 @@
         <v>127</v>
       </c>
       <c r="AP44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AQ44">
         <v>43</v>
@@ -5263,16 +5258,16 @@
         <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -5296,19 +5291,19 @@
         <v>4</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U45" t="s">
         <v>13</v>
       </c>
       <c r="V45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -5326,7 +5321,7 @@
         <v>127</v>
       </c>
       <c r="AP45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ45">
         <v>44</v>
@@ -5358,13 +5353,13 @@
         <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -5388,19 +5383,19 @@
         <v>5</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U46" t="s">
         <v>13</v>
       </c>
       <c r="V46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -5418,7 +5413,7 @@
         <v>127</v>
       </c>
       <c r="AP46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AQ46">
         <v>45</v>
@@ -5447,16 +5442,16 @@
         <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -5480,19 +5475,19 @@
         <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S47" s="4">
         <v>10</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U47" t="s">
         <v>13</v>
       </c>
       <c r="V47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -5510,7 +5505,7 @@
         <v>128</v>
       </c>
       <c r="AP47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ47">
         <v>46</v>
@@ -5539,16 +5534,16 @@
         <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -5572,19 +5567,19 @@
         <v>7</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S48" s="4">
         <v>11</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U48" t="s">
         <v>13</v>
       </c>
       <c r="V48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -5602,7 +5597,7 @@
         <v>128</v>
       </c>
       <c r="AP48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ48">
         <v>47</v>
@@ -5631,16 +5626,16 @@
         <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J49">
         <v>7</v>
@@ -5664,19 +5659,19 @@
         <v>8</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S49" s="4">
         <v>12</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U49" t="s">
         <v>13</v>
       </c>
       <c r="V49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5694,7 +5689,7 @@
         <v>128</v>
       </c>
       <c r="AP49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ49">
         <v>48</v>
@@ -5723,16 +5718,16 @@
         <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J50">
         <v>8</v>
@@ -5756,13 +5751,13 @@
         <v>1</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U50" t="s">
         <v>13</v>
@@ -5786,7 +5781,7 @@
         <v>128</v>
       </c>
       <c r="AP50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.3">
@@ -5803,16 +5798,16 @@
         <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G51">
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J51">
         <v>9</v>
@@ -5839,7 +5834,7 @@
         <v>10</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T51" s="4">
         <v>10</v>
@@ -5866,7 +5861,7 @@
         <v>128</v>
       </c>
       <c r="AP51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.3">
@@ -5883,16 +5878,16 @@
         <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G52">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J52">
         <v>10</v>
@@ -5916,10 +5911,10 @@
         <v>3</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T52" s="4">
         <v>11</v>
@@ -5946,7 +5941,7 @@
         <v>128</v>
       </c>
       <c r="AP52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.3">
@@ -5963,16 +5958,16 @@
         <v>114</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53">
         <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53">
         <v>11</v>
@@ -5996,10 +5991,10 @@
         <v>4</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T53" s="4">
         <v>12</v>
@@ -6026,7 +6021,7 @@
         <v>128</v>
       </c>
       <c r="AP53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.3">
@@ -6043,16 +6038,16 @@
         <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G54">
         <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J54">
         <v>12</v>
@@ -6076,10 +6071,10 @@
         <v>5</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T54" s="4">
         <v>13</v>
@@ -6106,7 +6101,7 @@
         <v>128</v>
       </c>
       <c r="AP54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.3">
@@ -6123,16 +6118,16 @@
         <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G55">
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J55">
         <v>13</v>
@@ -6156,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T55" s="4">
         <v>14</v>
@@ -6186,7 +6181,7 @@
         <v>128</v>
       </c>
       <c r="AP55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.3">
@@ -6203,16 +6198,16 @@
         <v>114</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56">
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J56">
         <v>14</v>
@@ -6236,10 +6231,10 @@
         <v>7</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T56" s="4">
         <v>15</v>
@@ -6266,7 +6261,7 @@
         <v>128</v>
       </c>
       <c r="AP56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.3">
@@ -6283,16 +6278,16 @@
         <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G57">
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J57">
         <v>15</v>
@@ -6316,10 +6311,10 @@
         <v>8</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T57" s="4">
         <v>16</v>
@@ -6346,7 +6341,7 @@
         <v>129</v>
       </c>
       <c r="AP57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.3">
@@ -6363,16 +6358,16 @@
         <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J58">
         <v>16</v>
@@ -6396,10 +6391,10 @@
         <v>1</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T58" s="4">
         <v>17</v>
@@ -6426,7 +6421,7 @@
         <v>129</v>
       </c>
       <c r="AP58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.3">
@@ -6443,16 +6438,16 @@
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G59" t="s">
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J59">
         <v>17</v>
@@ -6476,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S59" s="4">
         <v>10</v>
@@ -6506,7 +6501,7 @@
         <v>129</v>
       </c>
       <c r="AP59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.3">
@@ -6523,16 +6518,16 @@
         <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G60" t="s">
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J60">
         <v>18</v>
@@ -6556,7 +6551,7 @@
         <v>3</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S60" s="4">
         <v>11</v>
@@ -6586,7 +6581,7 @@
         <v>129</v>
       </c>
       <c r="AP60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.3">
@@ -6606,13 +6601,13 @@
         <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61">
         <v>19</v>
@@ -6666,7 +6661,7 @@
         <v>129</v>
       </c>
       <c r="AP61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.3">
@@ -6683,22 +6678,22 @@
         <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M62">
         <v>11</v>
@@ -6716,13 +6711,13 @@
         <v>5</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U62" t="s">
         <v>14</v>
@@ -6746,7 +6741,7 @@
         <v>129</v>
       </c>
       <c r="AP62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.3">
@@ -6763,22 +6758,22 @@
         <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M63">
         <v>11</v>
@@ -6796,13 +6791,13 @@
         <v>6</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U63" t="s">
         <v>14</v>
@@ -6826,7 +6821,7 @@
         <v>129</v>
       </c>
       <c r="AP63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.3">
@@ -6843,22 +6838,22 @@
         <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M64">
         <v>11</v>
@@ -6876,13 +6871,13 @@
         <v>7</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U64" t="s">
         <v>14</v>
@@ -6906,7 +6901,7 @@
         <v>129</v>
       </c>
       <c r="AP64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.3">
@@ -6923,22 +6918,22 @@
         <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J65">
         <v>3</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M65">
         <v>11</v>
@@ -6956,13 +6951,13 @@
         <v>8</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U65" t="s">
         <v>14</v>
@@ -6986,7 +6981,7 @@
         <v>129</v>
       </c>
       <c r="AP65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.3">
@@ -7003,22 +6998,22 @@
         <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G66">
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J66">
         <v>4</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="M66">
         <v>11</v>
@@ -7036,13 +7031,13 @@
         <v>1</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U66" t="s">
         <v>14</v>
@@ -7066,7 +7061,7 @@
         <v>129</v>
       </c>
       <c r="AP66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.3">
@@ -7083,22 +7078,22 @@
         <v>115</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J67">
         <v>5</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="M67">
         <v>11</v>
@@ -7116,13 +7111,13 @@
         <v>2</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S67" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T67" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U67" t="s">
         <v>14</v>
@@ -7146,7 +7141,7 @@
         <v>129</v>
       </c>
       <c r="AP67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.3">
@@ -7163,22 +7158,22 @@
         <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G68">
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J68">
         <v>6</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="M68">
         <v>12</v>
@@ -7196,13 +7191,13 @@
         <v>3</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U68" t="s">
         <v>14</v>
@@ -7226,7 +7221,7 @@
         <v>130</v>
       </c>
       <c r="AP68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.3">
@@ -7243,22 +7238,22 @@
         <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69">
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J69">
         <v>7</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="M69">
         <v>12</v>
@@ -7276,13 +7271,13 @@
         <v>4</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U69" t="s">
         <v>15</v>
@@ -7306,7 +7301,7 @@
         <v>130</v>
       </c>
       <c r="AP69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.3">
@@ -7323,16 +7318,16 @@
         <v>115</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J70">
         <v>8</v>
@@ -7356,13 +7351,13 @@
         <v>5</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U70" t="s">
         <v>15</v>
@@ -7386,7 +7381,7 @@
         <v>130</v>
       </c>
       <c r="AP70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.3">
@@ -7403,16 +7398,16 @@
         <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G71">
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J71">
         <v>9</v>
@@ -7466,7 +7461,7 @@
         <v>130</v>
       </c>
       <c r="AP71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.3">
@@ -7483,16 +7478,16 @@
         <v>115</v>
       </c>
       <c r="F72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G72">
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J72">
         <v>10</v>
@@ -7516,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S72" s="4">
         <v>11</v>
@@ -7546,7 +7541,7 @@
         <v>130</v>
       </c>
       <c r="AP72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.3">
@@ -7563,16 +7558,16 @@
         <v>115</v>
       </c>
       <c r="F73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G73" t="s">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J73">
         <v>11</v>
@@ -7596,7 +7591,7 @@
         <v>8</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S73" s="4">
         <v>12</v>
@@ -7626,7 +7621,7 @@
         <v>130</v>
       </c>
       <c r="AP73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.3">
@@ -7643,16 +7638,16 @@
         <v>115</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G74" t="s">
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J74">
         <v>12</v>
@@ -7676,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T74" s="4">
         <v>13</v>
@@ -7706,7 +7701,7 @@
         <v>130</v>
       </c>
       <c r="AP74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.3">
@@ -7723,16 +7718,16 @@
         <v>115</v>
       </c>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J75">
         <v>13</v>
@@ -7756,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T75" s="4">
         <v>14</v>
@@ -7786,7 +7781,7 @@
         <v>130</v>
       </c>
       <c r="AP75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.3">
@@ -7806,13 +7801,13 @@
         <v>115</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J76">
         <v>14</v>
@@ -7836,10 +7831,10 @@
         <v>3</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T76" s="4">
         <v>15</v>
@@ -7866,7 +7861,7 @@
         <v>130</v>
       </c>
       <c r="AP76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.3">
@@ -7883,16 +7878,16 @@
         <v>116</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J77">
         <v>15</v>
@@ -7916,10 +7911,10 @@
         <v>4</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T77" s="4">
         <v>16</v>
@@ -7928,7 +7923,7 @@
         <v>17</v>
       </c>
       <c r="V77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X77">
         <v>0</v>
@@ -7946,7 +7941,7 @@
         <v>130</v>
       </c>
       <c r="AP77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.3">
@@ -7963,16 +7958,16 @@
         <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" t="s">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J78">
         <v>16</v>
@@ -7996,10 +7991,10 @@
         <v>5</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T78" s="4">
         <v>17</v>
@@ -8008,7 +8003,7 @@
         <v>17</v>
       </c>
       <c r="V78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -8026,7 +8021,7 @@
         <v>130</v>
       </c>
       <c r="AP78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.3">
@@ -8043,16 +8038,16 @@
         <v>116</v>
       </c>
       <c r="F79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J79">
         <v>17</v>
@@ -8076,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T79" s="4">
         <v>18</v>
@@ -8106,7 +8101,7 @@
         <v>130</v>
       </c>
       <c r="AP79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.3">
@@ -8123,16 +8118,16 @@
         <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J80">
         <v>18</v>
@@ -8153,10 +8148,10 @@
         <v>7</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T80" s="4">
         <v>19</v>
@@ -8183,7 +8178,7 @@
         <v>131</v>
       </c>
       <c r="AP80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.3">
@@ -8200,16 +8195,16 @@
         <v>116</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G81">
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J81">
         <v>19</v>
@@ -8233,7 +8228,7 @@
         <v>10</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T81" s="4">
         <v>20</v>
@@ -8260,7 +8255,7 @@
         <v>131</v>
       </c>
       <c r="AP81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.3">
@@ -8277,16 +8272,16 @@
         <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G82">
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -8307,13 +8302,13 @@
         <v>1</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S82" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U82" t="s">
         <v>17</v>
@@ -8337,7 +8332,7 @@
         <v>131</v>
       </c>
       <c r="AP82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.3">
@@ -8354,16 +8349,16 @@
         <v>116</v>
       </c>
       <c r="F83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G83">
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -8384,13 +8379,13 @@
         <v>2</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S83" s="4">
         <v>10</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U83" t="s">
         <v>17</v>
@@ -8414,7 +8409,7 @@
         <v>131</v>
       </c>
       <c r="AP83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.3">
@@ -8431,16 +8426,16 @@
         <v>116</v>
       </c>
       <c r="F84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G84">
         <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -8461,13 +8456,13 @@
         <v>3</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S84" s="4">
         <v>11</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U84" t="s">
         <v>17</v>
@@ -8491,7 +8486,7 @@
         <v>131</v>
       </c>
       <c r="AP84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.3">
@@ -8508,16 +8503,16 @@
         <v>116</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -8538,13 +8533,13 @@
         <v>4</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S85" s="4">
         <v>12</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U85" t="s">
         <v>17</v>
@@ -8568,7 +8563,7 @@
         <v>131</v>
       </c>
       <c r="AP85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.3">
@@ -8585,16 +8580,16 @@
         <v>116</v>
       </c>
       <c r="F86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G86">
         <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J86">
         <v>4</v>
@@ -8615,13 +8610,13 @@
         <v>5</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U86" t="s">
         <v>17</v>
@@ -8645,7 +8640,7 @@
         <v>131</v>
       </c>
       <c r="AP86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.3">
@@ -8662,16 +8657,16 @@
         <v>116</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -8692,13 +8687,13 @@
         <v>6</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S87" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U87" t="s">
         <v>17</v>
@@ -8722,7 +8717,7 @@
         <v>131</v>
       </c>
       <c r="AP87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.3">
@@ -8739,16 +8734,16 @@
         <v>116</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G88" t="s">
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J88">
         <v>6</v>
@@ -8769,19 +8764,19 @@
         <v>7</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S88" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U88" t="s">
         <v>17</v>
       </c>
       <c r="V88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X88">
         <v>0</v>
@@ -8799,7 +8794,7 @@
         <v>131</v>
       </c>
       <c r="AP88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.3">
@@ -8816,16 +8811,16 @@
         <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G89" t="s">
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J89">
         <v>7</v>
@@ -8846,13 +8841,13 @@
         <v>8</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S89" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U89" t="s">
         <v>17</v>
@@ -8876,7 +8871,7 @@
         <v>131</v>
       </c>
       <c r="AP89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.3">
@@ -8893,16 +8888,16 @@
         <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J90">
         <v>8</v>
@@ -8923,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S90" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U90" t="s">
         <v>17</v>
@@ -8953,7 +8948,7 @@
         <v>131</v>
       </c>
       <c r="AP90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.3">
@@ -8973,13 +8968,13 @@
         <v>116</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J91">
         <v>9</v>
@@ -9003,7 +8998,7 @@
         <v>10</v>
       </c>
       <c r="S91" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T91" s="4">
         <v>10</v>
@@ -9030,7 +9025,7 @@
         <v>131</v>
       </c>
       <c r="AP91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.3">
@@ -9047,16 +9042,16 @@
         <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J92">
         <v>10</v>
@@ -9077,10 +9072,10 @@
         <v>3</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S92" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T92" s="4">
         <v>11</v>
@@ -9098,7 +9093,7 @@
         <v>131</v>
       </c>
       <c r="AP92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.3">
@@ -9115,16 +9110,16 @@
         <v>117</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G93" t="s">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J93">
         <v>11</v>
@@ -9145,10 +9140,10 @@
         <v>4</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S93" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T93" s="4">
         <v>12</v>
@@ -9166,7 +9161,7 @@
         <v>132</v>
       </c>
       <c r="AP93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.3">
@@ -9183,22 +9178,22 @@
         <v>117</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J94">
         <v>12</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -9213,10 +9208,10 @@
         <v>5</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S94" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T94" s="4">
         <v>13</v>
@@ -9234,7 +9229,7 @@
         <v>132</v>
       </c>
       <c r="AP94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.3">
@@ -9251,22 +9246,22 @@
         <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J95">
         <v>13</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -9281,7 +9276,7 @@
         <v>6</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S95" s="4">
         <v>10</v>
@@ -9302,7 +9297,7 @@
         <v>132</v>
       </c>
       <c r="AP95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.3">
@@ -9319,22 +9314,22 @@
         <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G96">
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J96">
         <v>14</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N96">
         <v>3</v>
@@ -9349,7 +9344,7 @@
         <v>7</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S96" s="4">
         <v>11</v>
@@ -9370,7 +9365,7 @@
         <v>132</v>
       </c>
       <c r="AP96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.3">
@@ -9387,22 +9382,22 @@
         <v>117</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J97">
         <v>15</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N97">
         <v>4</v>
@@ -9417,7 +9412,7 @@
         <v>8</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S97" s="4">
         <v>12</v>
@@ -9438,7 +9433,7 @@
         <v>132</v>
       </c>
       <c r="AP97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.3">
@@ -9455,16 +9450,16 @@
         <v>117</v>
       </c>
       <c r="F98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G98">
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J98">
         <v>16</v>
@@ -9485,10 +9480,10 @@
         <v>1</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S98" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T98" s="4">
         <v>17</v>
@@ -9506,7 +9501,7 @@
         <v>132</v>
       </c>
       <c r="AP98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.3">
@@ -9523,16 +9518,16 @@
         <v>117</v>
       </c>
       <c r="F99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G99">
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J99">
         <v>17</v>
@@ -9553,10 +9548,10 @@
         <v>2</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S99" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T99" s="4">
         <v>18</v>
@@ -9574,7 +9569,7 @@
         <v>132</v>
       </c>
       <c r="AP99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.3">
@@ -9591,16 +9586,16 @@
         <v>117</v>
       </c>
       <c r="F100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G100">
         <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J100">
         <v>18</v>
@@ -9621,10 +9616,10 @@
         <v>3</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S100" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T100" s="4">
         <v>19</v>
@@ -9642,7 +9637,7 @@
         <v>132</v>
       </c>
       <c r="AP100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.3">
@@ -9659,16 +9654,16 @@
         <v>117</v>
       </c>
       <c r="F101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G101">
         <v>9</v>
       </c>
       <c r="H101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J101">
         <v>19</v>
@@ -9692,7 +9687,7 @@
         <v>10</v>
       </c>
       <c r="S101" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T101" s="4">
         <v>20</v>
@@ -9710,7 +9705,7 @@
         <v>132</v>
       </c>
       <c r="AP101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.3">
@@ -9727,22 +9722,22 @@
         <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G102">
         <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -9757,13 +9752,13 @@
         <v>5</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S102" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T102" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U102" t="s">
         <v>18</v>
@@ -9778,7 +9773,7 @@
         <v>132</v>
       </c>
       <c r="AP102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.3">
@@ -9795,22 +9790,22 @@
         <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G103" t="s">
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -9825,13 +9820,13 @@
         <v>6</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S103" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T103" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U103" t="s">
         <v>18</v>
@@ -9846,7 +9841,7 @@
         <v>132</v>
       </c>
       <c r="AP103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.3">
@@ -9863,22 +9858,22 @@
         <v>117</v>
       </c>
       <c r="F104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G104" t="s">
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J104">
         <v>2</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N104">
         <v>3</v>
@@ -9893,13 +9888,13 @@
         <v>7</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S104" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T104" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB104">
         <v>108</v>
@@ -9908,7 +9903,7 @@
         <v>132</v>
       </c>
       <c r="AP104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.3">
@@ -9925,22 +9920,22 @@
         <v>117</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J105">
         <v>3</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N105">
         <v>4</v>
@@ -9955,13 +9950,13 @@
         <v>8</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S105" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T105" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB105">
         <v>108</v>
@@ -9970,7 +9965,7 @@
         <v>132</v>
       </c>
       <c r="AP105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.3">
@@ -9990,19 +9985,19 @@
         <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J106">
         <v>4</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -10017,13 +10012,13 @@
         <v>1</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S106" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T106" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB106">
         <v>108</v>
@@ -10032,7 +10027,7 @@
         <v>132</v>
       </c>
       <c r="AP106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.3">
@@ -10049,22 +10044,22 @@
         <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J107">
         <v>5</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N107">
         <v>2</v>
@@ -10079,19 +10074,19 @@
         <v>2</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S107" s="4">
         <v>10</v>
       </c>
       <c r="T107" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB107">
         <v>108</v>
       </c>
       <c r="AP107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.3">
@@ -10108,22 +10103,22 @@
         <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G108" t="s">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J108">
         <v>6</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N108">
         <v>3</v>
@@ -10138,13 +10133,13 @@
         <v>3</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S108" s="4">
         <v>11</v>
       </c>
       <c r="T108" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB108">
         <v>108</v>
@@ -10153,7 +10148,7 @@
         <v>119</v>
       </c>
       <c r="AP108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.3">
@@ -10170,22 +10165,22 @@
         <v>118</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G109">
         <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J109">
         <v>7</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N109">
         <v>4</v>
@@ -10200,13 +10195,13 @@
         <v>4</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S109" s="4">
         <v>12</v>
       </c>
       <c r="T109" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB109">
         <v>108</v>
@@ -10215,7 +10210,7 @@
         <v>120</v>
       </c>
       <c r="AP109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.3">
@@ -10232,22 +10227,22 @@
         <v>118</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J110">
         <v>8</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10259,19 +10254,19 @@
         <v>5</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S110" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T110" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AO110" t="s">
         <v>121</v>
       </c>
       <c r="AP110" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.3">
@@ -10288,22 +10283,22 @@
         <v>118</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G111">
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J111">
         <v>9</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N111">
         <v>2</v>
@@ -10318,7 +10313,7 @@
         <v>10</v>
       </c>
       <c r="S111" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T111" s="4">
         <v>10</v>
@@ -10327,7 +10322,7 @@
         <v>122</v>
       </c>
       <c r="AP111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.3">
@@ -10344,22 +10339,22 @@
         <v>118</v>
       </c>
       <c r="F112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G112">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J112">
         <v>10</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N112">
         <v>3</v>
@@ -10371,10 +10366,10 @@
         <v>7</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S112" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T112" s="4">
         <v>11</v>
@@ -10383,7 +10378,7 @@
         <v>123</v>
       </c>
       <c r="AP112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.3">
@@ -10400,22 +10395,22 @@
         <v>118</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G113">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J113">
         <v>11</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N113">
         <v>4</v>
@@ -10427,10 +10422,10 @@
         <v>8</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S113" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T113" s="4">
         <v>12</v>
@@ -10439,7 +10434,7 @@
         <v>124</v>
       </c>
       <c r="AP113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.3">
@@ -10456,22 +10451,22 @@
         <v>118</v>
       </c>
       <c r="F114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G114">
         <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J114">
         <v>12</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -10483,10 +10478,10 @@
         <v>1</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S114" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T114" s="4">
         <v>13</v>
@@ -10495,7 +10490,7 @@
         <v>125</v>
       </c>
       <c r="AP114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.3">
@@ -10512,22 +10507,22 @@
         <v>118</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G115">
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J115">
         <v>13</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N115">
         <v>2</v>
@@ -10539,10 +10534,10 @@
         <v>2</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S115" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T115" s="4">
         <v>14</v>
@@ -10551,7 +10546,7 @@
         <v>126</v>
       </c>
       <c r="AP115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.3">
@@ -10568,22 +10563,22 @@
         <v>118</v>
       </c>
       <c r="F116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G116">
         <v>9</v>
       </c>
       <c r="H116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J116">
         <v>14</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N116">
         <v>3</v>
@@ -10595,10 +10590,10 @@
         <v>3</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S116" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T116" s="4">
         <v>15</v>
@@ -10607,7 +10602,7 @@
         <v>127</v>
       </c>
       <c r="AP116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.3">
@@ -10624,22 +10619,22 @@
         <v>118</v>
       </c>
       <c r="F117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G117">
         <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J117">
         <v>15</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N117">
         <v>4</v>
@@ -10651,10 +10646,10 @@
         <v>4</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S117" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T117" s="4">
         <v>16</v>
@@ -10663,7 +10658,7 @@
         <v>128</v>
       </c>
       <c r="AP117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.3">
@@ -10680,22 +10675,22 @@
         <v>118</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G118" t="s">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J118">
         <v>16</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -10707,10 +10702,10 @@
         <v>5</v>
       </c>
       <c r="R118" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S118" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T118" s="4">
         <v>17</v>
@@ -10719,7 +10714,7 @@
         <v>129</v>
       </c>
       <c r="AP118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.3">
@@ -10736,22 +10731,22 @@
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G119" t="s">
         <v>2</v>
       </c>
       <c r="H119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J119">
         <v>17</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N119">
         <v>2</v>
@@ -10763,7 +10758,7 @@
         <v>6</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S119" s="4">
         <v>10</v>
@@ -10775,7 +10770,7 @@
         <v>130</v>
       </c>
       <c r="AP119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.3">
@@ -10792,22 +10787,22 @@
         <v>118</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G120" t="s">
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J120">
         <v>18</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N120">
         <v>3</v>
@@ -10819,7 +10814,7 @@
         <v>7</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S120" s="4">
         <v>11</v>
@@ -10831,7 +10826,7 @@
         <v>131</v>
       </c>
       <c r="AP120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.3">
@@ -10851,19 +10846,19 @@
         <v>118</v>
       </c>
       <c r="F121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J121">
         <v>19</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N121">
         <v>4</v>
@@ -10887,7 +10882,7 @@
         <v>132</v>
       </c>
       <c r="AP121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.3">
